--- a/data/destinations.xlsx
+++ b/data/destinations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8BC74-2D93-4C60-ABFC-89BBD3B4C50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19BC0E0-0CCA-4443-8A59-CDFCC2F86C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2475" windowWidth="8535" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="240" windowWidth="8535" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tour Destination" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7783" uniqueCount="4652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7782" uniqueCount="4652">
   <si>
     <t>Id</t>
   </si>
@@ -14398,8 +14398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C664" sqref="C664"/>
+    <sheetView tabSelected="1" topLeftCell="A666" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14457,9 +14457,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -14498,9 +14496,6 @@
       <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -14539,9 +14534,6 @@
       <c r="M3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -14580,9 +14572,6 @@
       <c r="M4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -14621,9 +14610,6 @@
       <c r="M5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -14662,9 +14648,6 @@
       <c r="M6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -14703,9 +14686,6 @@
       <c r="M7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -14744,9 +14724,6 @@
       <c r="M8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -14785,9 +14762,6 @@
       <c r="M9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -14826,9 +14800,6 @@
       <c r="M10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="1">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -14867,9 +14838,6 @@
       <c r="M11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="1">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -14908,9 +14876,6 @@
       <c r="M12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="1">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -14949,9 +14914,6 @@
       <c r="M13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="1">
-        <v>16</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -14987,9 +14949,6 @@
       <c r="M14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="1">
-        <v>20</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -15028,9 +14987,6 @@
       <c r="M15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N15" s="1">
-        <v>25</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -15069,11 +15025,8 @@
       <c r="M16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -15110,11 +15063,8 @@
       <c r="M17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -15151,11 +15101,8 @@
       <c r="M18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>32</v>
       </c>
@@ -15192,11 +15139,8 @@
       <c r="M19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N19" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -15233,11 +15177,8 @@
       <c r="M20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N20" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35</v>
       </c>
@@ -15274,11 +15215,8 @@
       <c r="M21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>36</v>
       </c>
@@ -15315,11 +15253,8 @@
       <c r="M22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>38</v>
       </c>
@@ -15356,11 +15291,8 @@
       <c r="M23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N23" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40</v>
       </c>
@@ -15397,11 +15329,8 @@
       <c r="M24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44</v>
       </c>
@@ -15435,11 +15364,8 @@
       <c r="M25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N25" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45</v>
       </c>
@@ -15476,11 +15402,8 @@
       <c r="M26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46</v>
       </c>
@@ -15517,11 +15440,8 @@
       <c r="M27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N27" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -15555,11 +15475,8 @@
       <c r="M28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>51</v>
       </c>
@@ -15596,11 +15513,8 @@
       <c r="M29" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N29" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>53</v>
       </c>
@@ -15637,11 +15551,8 @@
       <c r="M30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N30" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>54</v>
       </c>
@@ -15675,11 +15586,8 @@
       <c r="M31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N31" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>55</v>
       </c>
@@ -15716,11 +15624,8 @@
       <c r="M32" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N32" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>56</v>
       </c>
@@ -15757,11 +15662,8 @@
       <c r="M33" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N33" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>57</v>
       </c>
@@ -15798,11 +15700,8 @@
       <c r="M34" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="N34" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>60</v>
       </c>
@@ -15839,11 +15738,8 @@
       <c r="M35" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="N35" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>61</v>
       </c>
@@ -15880,11 +15776,8 @@
       <c r="M36" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N36" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>62</v>
       </c>
@@ -15921,11 +15814,8 @@
       <c r="M37" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="N37" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>63</v>
       </c>
@@ -15962,11 +15852,8 @@
       <c r="M38" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N38" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>64</v>
       </c>
@@ -16003,11 +15890,8 @@
       <c r="M39" s="2" t="s">
         <v>4627</v>
       </c>
-      <c r="N39" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>65</v>
       </c>
@@ -16041,11 +15925,8 @@
       <c r="M40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N40" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>66</v>
       </c>
@@ -16082,11 +15963,8 @@
       <c r="M41" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="N41" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>67</v>
       </c>
@@ -16123,11 +16001,8 @@
       <c r="M42" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N42" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>68</v>
       </c>
@@ -16164,11 +16039,8 @@
       <c r="M43" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="N43" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>69</v>
       </c>
@@ -16205,11 +16077,8 @@
       <c r="M44" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="N44" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>70</v>
       </c>
@@ -16246,11 +16115,8 @@
       <c r="M45" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="N45" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>71</v>
       </c>
@@ -16287,11 +16153,8 @@
       <c r="M46" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="N46" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>72</v>
       </c>
@@ -16328,11 +16191,8 @@
       <c r="M47" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="N47" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>73</v>
       </c>
@@ -16369,11 +16229,8 @@
       <c r="M48" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="N48" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>74</v>
       </c>
@@ -16410,11 +16267,8 @@
       <c r="M49" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="N49" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>75</v>
       </c>
@@ -16451,11 +16305,8 @@
       <c r="M50" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="N50" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>76</v>
       </c>
@@ -16489,11 +16340,8 @@
       <c r="M51" s="2" t="s">
         <v>4628</v>
       </c>
-      <c r="N51" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>77</v>
       </c>
@@ -16530,11 +16378,8 @@
       <c r="M52" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="N52" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>78</v>
       </c>
@@ -16571,11 +16416,8 @@
       <c r="M53" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="N53" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>79</v>
       </c>
@@ -16612,11 +16454,8 @@
       <c r="M54" s="2" t="s">
         <v>4629</v>
       </c>
-      <c r="N54" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>80</v>
       </c>
@@ -16653,11 +16492,8 @@
       <c r="M55" s="2" t="s">
         <v>4630</v>
       </c>
-      <c r="N55" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>81</v>
       </c>
@@ -16694,11 +16530,8 @@
       <c r="M56" s="2" t="s">
         <v>4631</v>
       </c>
-      <c r="N56" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>82</v>
       </c>
@@ -16735,11 +16568,8 @@
       <c r="M57" s="2" t="s">
         <v>4632</v>
       </c>
-      <c r="N57" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>83</v>
       </c>
@@ -16776,11 +16606,8 @@
       <c r="M58" s="2" t="s">
         <v>4633</v>
       </c>
-      <c r="N58" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>84</v>
       </c>
@@ -16817,11 +16644,8 @@
       <c r="M59" s="2" t="s">
         <v>4634</v>
       </c>
-      <c r="N59" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>85</v>
       </c>
@@ -16855,11 +16679,8 @@
       <c r="M60" s="2" t="s">
         <v>4635</v>
       </c>
-      <c r="N60" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>86</v>
       </c>
@@ -16896,11 +16717,8 @@
       <c r="M61" s="2" t="s">
         <v>4636</v>
       </c>
-      <c r="N61" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>87</v>
       </c>
@@ -16937,11 +16755,8 @@
       <c r="M62" s="2" t="s">
         <v>4637</v>
       </c>
-      <c r="N62" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>88</v>
       </c>
@@ -16978,11 +16793,8 @@
       <c r="M63" s="2" t="s">
         <v>4638</v>
       </c>
-      <c r="N63" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>89</v>
       </c>
@@ -17019,11 +16831,8 @@
       <c r="M64" s="2" t="s">
         <v>4639</v>
       </c>
-      <c r="N64" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>90</v>
       </c>
@@ -17060,11 +16869,8 @@
       <c r="M65" s="2" t="s">
         <v>4640</v>
       </c>
-      <c r="N65" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>91</v>
       </c>
@@ -17101,11 +16907,8 @@
       <c r="M66" s="2" t="s">
         <v>4641</v>
       </c>
-      <c r="N66" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>92</v>
       </c>
@@ -17142,11 +16945,8 @@
       <c r="M67" s="2" t="s">
         <v>4642</v>
       </c>
-      <c r="N67" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>93</v>
       </c>
@@ -17183,11 +16983,8 @@
       <c r="M68" s="2" t="s">
         <v>4643</v>
       </c>
-      <c r="N68" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>94</v>
       </c>
@@ -17224,11 +17021,8 @@
       <c r="M69" s="2" t="s">
         <v>4644</v>
       </c>
-      <c r="N69" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>95</v>
       </c>
@@ -17265,11 +17059,8 @@
       <c r="M70" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="N70" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>96</v>
       </c>
@@ -17306,11 +17097,8 @@
       <c r="M71" s="2" t="s">
         <v>4645</v>
       </c>
-      <c r="N71" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -17347,11 +17135,8 @@
       <c r="M72" s="2" t="s">
         <v>4646</v>
       </c>
-      <c r="N72" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>98</v>
       </c>
@@ -17388,11 +17173,8 @@
       <c r="M73" s="2" t="s">
         <v>4647</v>
       </c>
-      <c r="N73" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>99</v>
       </c>
@@ -17429,11 +17211,8 @@
       <c r="M74" s="2" t="s">
         <v>4648</v>
       </c>
-      <c r="N74" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>100</v>
       </c>
@@ -17470,11 +17249,8 @@
       <c r="M75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N75" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>101</v>
       </c>
@@ -17511,11 +17287,8 @@
       <c r="M76" s="2" t="s">
         <v>4649</v>
       </c>
-      <c r="N76" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>102</v>
       </c>
@@ -17552,11 +17325,8 @@
       <c r="M77" s="2" t="s">
         <v>4650</v>
       </c>
-      <c r="N77" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>103</v>
       </c>
@@ -17587,11 +17357,8 @@
       <c r="M78" s="2" t="s">
         <v>4651</v>
       </c>
-      <c r="N78" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>104</v>
       </c>
@@ -17631,11 +17398,8 @@
       <c r="M79" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="N79" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>107</v>
       </c>
@@ -17675,11 +17439,8 @@
       <c r="M80" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="N80" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>108</v>
       </c>
@@ -17719,11 +17480,8 @@
       <c r="M81" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="N81" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>109</v>
       </c>
@@ -17760,11 +17518,8 @@
       <c r="M82" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="N82" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -17792,11 +17547,8 @@
       <c r="M83" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N83" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>112</v>
       </c>
@@ -17827,11 +17579,8 @@
       <c r="M84" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="N84" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>113</v>
       </c>
@@ -17868,11 +17617,8 @@
       <c r="M85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N85" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>114</v>
       </c>
@@ -17906,11 +17652,8 @@
       <c r="M86" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="N86" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>115</v>
       </c>
@@ -17947,11 +17690,8 @@
       <c r="M87" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="N87" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>116</v>
       </c>
@@ -17991,11 +17731,8 @@
       <c r="M88" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N88" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>117</v>
       </c>
@@ -18035,11 +17772,8 @@
       <c r="M89" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="N89" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>119</v>
       </c>
@@ -18079,11 +17813,8 @@
       <c r="M90" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="N90" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>120</v>
       </c>
@@ -18114,11 +17845,8 @@
       <c r="M91" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="N91" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>121</v>
       </c>
@@ -18155,11 +17883,8 @@
       <c r="M92" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="N92" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>124</v>
       </c>
@@ -18196,11 +17921,8 @@
       <c r="M93" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="N93" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>125</v>
       </c>
@@ -18240,11 +17962,8 @@
       <c r="M94" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="N94" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>126</v>
       </c>
@@ -18284,11 +18003,8 @@
       <c r="M95" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="N95" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>127</v>
       </c>
@@ -18325,11 +18041,8 @@
       <c r="M96" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="N96" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>130</v>
       </c>
@@ -18360,11 +18073,8 @@
       <c r="M97" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="N97" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>132</v>
       </c>
@@ -18401,11 +18111,8 @@
       <c r="M98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N98" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>133</v>
       </c>
@@ -18439,11 +18146,8 @@
       <c r="M99" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="N99" s="1">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>134</v>
       </c>
@@ -18483,11 +18187,8 @@
       <c r="M100" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="N100" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>135</v>
       </c>
@@ -18527,11 +18228,8 @@
       <c r="M101" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="N101" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>136</v>
       </c>
@@ -18571,11 +18269,8 @@
       <c r="M102" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="N102" s="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>138</v>
       </c>
@@ -18603,11 +18298,8 @@
       <c r="M103" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="N103" s="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>139</v>
       </c>
@@ -18644,11 +18336,8 @@
       <c r="M104" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="N104" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>140</v>
       </c>
@@ -18688,11 +18377,8 @@
       <c r="M105" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="N105" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>141</v>
       </c>
@@ -18732,11 +18418,8 @@
       <c r="M106" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="N106" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>142</v>
       </c>
@@ -18773,11 +18456,8 @@
       <c r="M107" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="N107" s="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>143</v>
       </c>
@@ -18817,11 +18497,8 @@
       <c r="M108" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="N108" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>144</v>
       </c>
@@ -18858,11 +18535,8 @@
       <c r="M109" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N109" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>145</v>
       </c>
@@ -18902,11 +18576,8 @@
       <c r="M110" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="N110" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>146</v>
       </c>
@@ -18946,11 +18617,8 @@
       <c r="M111" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N111" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>147</v>
       </c>
@@ -18990,11 +18658,8 @@
       <c r="M112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N112" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>148</v>
       </c>
@@ -19034,11 +18699,8 @@
       <c r="M113" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N113" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>149</v>
       </c>
@@ -19078,11 +18740,8 @@
       <c r="M114" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="N114" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>150</v>
       </c>
@@ -19113,11 +18772,8 @@
       <c r="M115" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="N115" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>152</v>
       </c>
@@ -19148,11 +18804,8 @@
       <c r="M116" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="N116" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>153</v>
       </c>
@@ -19192,11 +18845,8 @@
       <c r="M117" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N117" s="1">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>154</v>
       </c>
@@ -19236,11 +18886,8 @@
       <c r="M118" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N118" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>155</v>
       </c>
@@ -19277,11 +18924,8 @@
       <c r="M119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N119" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>156</v>
       </c>
@@ -19318,11 +18962,8 @@
       <c r="M120" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="N120" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>159</v>
       </c>
@@ -19362,11 +19003,8 @@
       <c r="M121" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="N121" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>160</v>
       </c>
@@ -19406,11 +19044,8 @@
       <c r="M122" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="N122" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>161</v>
       </c>
@@ -19447,11 +19082,8 @@
       <c r="M123" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N123" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>163</v>
       </c>
@@ -19491,11 +19123,8 @@
       <c r="M124" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="N124" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>164</v>
       </c>
@@ -19532,11 +19161,8 @@
       <c r="M125" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N125" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>166</v>
       </c>
@@ -19576,11 +19202,8 @@
       <c r="M126" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="N126" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>167</v>
       </c>
@@ -19620,11 +19243,8 @@
       <c r="M127" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="N127" s="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>168</v>
       </c>
@@ -19664,11 +19284,8 @@
       <c r="M128" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="N128" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>169</v>
       </c>
@@ -19708,11 +19325,8 @@
       <c r="M129" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="N129" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>170</v>
       </c>
@@ -19752,11 +19366,8 @@
       <c r="M130" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="N130" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>171</v>
       </c>
@@ -19793,11 +19404,8 @@
       <c r="M131" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N131" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>172</v>
       </c>
@@ -19837,11 +19445,8 @@
       <c r="M132" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="N132" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>173</v>
       </c>
@@ -19881,11 +19486,8 @@
       <c r="M133" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N133" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>174</v>
       </c>
@@ -19925,11 +19527,8 @@
       <c r="M134" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="N134" s="1">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>175</v>
       </c>
@@ -19969,11 +19568,8 @@
       <c r="M135" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="N135" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>176</v>
       </c>
@@ -20004,11 +19600,8 @@
       <c r="M136" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="N136" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>177</v>
       </c>
@@ -20045,11 +19638,8 @@
       <c r="M137" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N137" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>178</v>
       </c>
@@ -20089,11 +19679,8 @@
       <c r="M138" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="N138" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>179</v>
       </c>
@@ -20130,11 +19717,8 @@
       <c r="M139" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="N139" s="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>180</v>
       </c>
@@ -20174,11 +19758,8 @@
       <c r="M140" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="N140" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>181</v>
       </c>
@@ -20206,11 +19787,8 @@
       <c r="M141" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N141" s="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>184</v>
       </c>
@@ -20238,11 +19816,8 @@
       <c r="M142" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="N142" s="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>185</v>
       </c>
@@ -20282,11 +19857,8 @@
       <c r="M143" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="N143" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>186</v>
       </c>
@@ -20326,11 +19898,8 @@
       <c r="M144" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="N144" s="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>187</v>
       </c>
@@ -20364,11 +19933,8 @@
       <c r="M145" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="N145" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>188</v>
       </c>
@@ -20402,11 +19968,8 @@
       <c r="M146" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="N146" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>189</v>
       </c>
@@ -20446,11 +20009,8 @@
       <c r="M147" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N147" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>190</v>
       </c>
@@ -20487,11 +20047,8 @@
       <c r="M148" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N148" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>191</v>
       </c>
@@ -20525,11 +20082,8 @@
       <c r="M149" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N149" s="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>192</v>
       </c>
@@ -20569,11 +20123,8 @@
       <c r="M150" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="N150" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>193</v>
       </c>
@@ -20613,11 +20164,8 @@
       <c r="M151" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="N151" s="1">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>194</v>
       </c>
@@ -20657,11 +20205,8 @@
       <c r="M152" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="N152" s="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>195</v>
       </c>
@@ -20701,11 +20246,8 @@
       <c r="M153" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="N153" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>196</v>
       </c>
@@ -20739,11 +20281,8 @@
       <c r="M154" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N154" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>197</v>
       </c>
@@ -20771,11 +20310,8 @@
       <c r="M155" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="N155" s="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>198</v>
       </c>
@@ -20812,11 +20348,8 @@
       <c r="M156" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N156" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>199</v>
       </c>
@@ -20856,11 +20389,8 @@
       <c r="M157" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="N157" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>200</v>
       </c>
@@ -20888,11 +20418,8 @@
       <c r="M158" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="N158" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>201</v>
       </c>
@@ -20932,11 +20459,8 @@
       <c r="M159" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="N159" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>202</v>
       </c>
@@ -20976,11 +20500,8 @@
       <c r="M160" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N160" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>203</v>
       </c>
@@ -21017,11 +20538,8 @@
       <c r="M161" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="N161" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>204</v>
       </c>
@@ -21061,11 +20579,8 @@
       <c r="M162" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="N162" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>205</v>
       </c>
@@ -21102,11 +20617,8 @@
       <c r="M163" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N163" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>206</v>
       </c>
@@ -21140,11 +20652,8 @@
       <c r="M164" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="N164" s="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>209</v>
       </c>
@@ -21181,11 +20690,8 @@
       <c r="M165" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="N165" s="1">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>210</v>
       </c>
@@ -21225,11 +20731,8 @@
       <c r="M166" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="N166" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>211</v>
       </c>
@@ -21269,11 +20772,8 @@
       <c r="M167" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="N167" s="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>212</v>
       </c>
@@ -21313,11 +20813,8 @@
       <c r="M168" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="N168" s="1">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>213</v>
       </c>
@@ -21357,11 +20854,8 @@
       <c r="M169" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="N169" s="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>214</v>
       </c>
@@ -21401,11 +20895,8 @@
       <c r="M170" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="N170" s="1">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>215</v>
       </c>
@@ -21445,11 +20936,8 @@
       <c r="M171" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="N171" s="1">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>216</v>
       </c>
@@ -21489,11 +20977,8 @@
       <c r="M172" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="N172" s="1">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>219</v>
       </c>
@@ -21533,11 +21018,8 @@
       <c r="M173" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="N173" s="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>220</v>
       </c>
@@ -21577,11 +21059,8 @@
       <c r="M174" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="N174" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>221</v>
       </c>
@@ -21621,11 +21100,8 @@
       <c r="M175" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="N175" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>222</v>
       </c>
@@ -21665,11 +21141,8 @@
       <c r="M176" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="N176" s="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>223</v>
       </c>
@@ -21709,11 +21182,8 @@
       <c r="M177" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="N177" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>225</v>
       </c>
@@ -21753,11 +21223,8 @@
       <c r="M178" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N178" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>227</v>
       </c>
@@ -21797,11 +21264,8 @@
       <c r="M179" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="N179" s="1">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>229</v>
       </c>
@@ -21841,11 +21305,8 @@
       <c r="M180" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="N180" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>230</v>
       </c>
@@ -21885,11 +21346,8 @@
       <c r="M181" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="N181" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>231</v>
       </c>
@@ -21929,11 +21387,8 @@
       <c r="M182" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="N182" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>232</v>
       </c>
@@ -21973,11 +21428,8 @@
       <c r="M183" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="N183" s="1">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>233</v>
       </c>
@@ -22017,11 +21469,8 @@
       <c r="M184" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="N184" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>234</v>
       </c>
@@ -22058,11 +21507,8 @@
       <c r="M185" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="N185" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>236</v>
       </c>
@@ -22102,11 +21548,8 @@
       <c r="M186" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="N186" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>237</v>
       </c>
@@ -22146,11 +21589,8 @@
       <c r="M187" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="N187" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>238</v>
       </c>
@@ -22190,11 +21630,8 @@
       <c r="M188" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="N188" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>239</v>
       </c>
@@ -22234,11 +21671,8 @@
       <c r="M189" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="N189" s="1">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>240</v>
       </c>
@@ -22278,11 +21712,8 @@
       <c r="M190" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="N190" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>241</v>
       </c>
@@ -22313,11 +21744,8 @@
       <c r="M191" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="N191" s="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>242</v>
       </c>
@@ -22357,11 +21785,8 @@
       <c r="M192" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="N192" s="1">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>243</v>
       </c>
@@ -22401,11 +21826,8 @@
       <c r="M193" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="N193" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>245</v>
       </c>
@@ -22445,11 +21867,8 @@
       <c r="M194" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="N194" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>246</v>
       </c>
@@ -22489,11 +21908,8 @@
       <c r="M195" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="N195" s="1">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>249</v>
       </c>
@@ -22533,11 +21949,8 @@
       <c r="M196" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N196" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>250</v>
       </c>
@@ -22577,11 +21990,8 @@
       <c r="M197" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N197" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>251</v>
       </c>
@@ -22621,11 +22031,8 @@
       <c r="M198" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="N198" s="1">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>253</v>
       </c>
@@ -22665,11 +22072,8 @@
       <c r="M199" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="N199" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>254</v>
       </c>
@@ -22709,11 +22113,8 @@
       <c r="M200" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="N200" s="1">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>255</v>
       </c>
@@ -22744,11 +22145,8 @@
       <c r="M201" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="N201" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>256</v>
       </c>
@@ -22788,11 +22186,8 @@
       <c r="M202" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="N202" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>257</v>
       </c>
@@ -22832,11 +22227,8 @@
       <c r="M203" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="N203" s="1">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>258</v>
       </c>
@@ -22876,11 +22268,8 @@
       <c r="M204" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="N204" s="1">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>259</v>
       </c>
@@ -22920,11 +22309,8 @@
       <c r="M205" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="N205" s="1">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>260</v>
       </c>
@@ -22964,11 +22350,8 @@
       <c r="M206" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="N206" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>262</v>
       </c>
@@ -23008,11 +22391,8 @@
       <c r="M207" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="N207" s="1">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>263</v>
       </c>
@@ -23052,11 +22432,8 @@
       <c r="M208" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="N208" s="1">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>264</v>
       </c>
@@ -23096,11 +22473,8 @@
       <c r="M209" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="N209" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>266</v>
       </c>
@@ -23140,11 +22514,8 @@
       <c r="M210" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="N210" s="1">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>268</v>
       </c>
@@ -23184,11 +22555,8 @@
       <c r="M211" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="N211" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>271</v>
       </c>
@@ -23228,11 +22596,8 @@
       <c r="M212" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="N212" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>273</v>
       </c>
@@ -23272,11 +22637,8 @@
       <c r="M213" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N213" s="1">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>275</v>
       </c>
@@ -23313,11 +22675,8 @@
       <c r="M214" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="N214" s="1">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>276</v>
       </c>
@@ -23357,11 +22716,8 @@
       <c r="M215" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="N215" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>277</v>
       </c>
@@ -23401,11 +22757,8 @@
       <c r="M216" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="N216" s="1">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>278</v>
       </c>
@@ -23445,11 +22798,8 @@
       <c r="M217" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="N217" s="1">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>279</v>
       </c>
@@ -23480,11 +22830,8 @@
       <c r="M218" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="N218" s="1">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>280</v>
       </c>
@@ -23515,11 +22862,8 @@
       <c r="M219" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="N219" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>281</v>
       </c>
@@ -23550,11 +22894,8 @@
       <c r="M220" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="N220" s="1">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>282</v>
       </c>
@@ -23594,11 +22935,8 @@
       <c r="M221" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="N221" s="1">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>283</v>
       </c>
@@ -23629,11 +22967,8 @@
       <c r="M222" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="N222" s="1">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>284</v>
       </c>
@@ -23664,11 +22999,8 @@
       <c r="M223" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="N223" s="1">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>285</v>
       </c>
@@ -23708,11 +23040,8 @@
       <c r="M224" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="N224" s="1">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>286</v>
       </c>
@@ -23752,11 +23081,8 @@
       <c r="M225" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="N225" s="1">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>287</v>
       </c>
@@ -23796,11 +23122,8 @@
       <c r="M226" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="N226" s="1">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>291</v>
       </c>
@@ -23840,11 +23163,8 @@
       <c r="M227" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N227" s="1">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>295</v>
       </c>
@@ -23884,11 +23204,8 @@
       <c r="M228" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="N228" s="1">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>296</v>
       </c>
@@ -23928,11 +23245,8 @@
       <c r="M229" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="N229" s="1">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>297</v>
       </c>
@@ -23972,11 +23286,8 @@
       <c r="M230" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N230" s="1">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>298</v>
       </c>
@@ -24016,11 +23327,8 @@
       <c r="M231" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N231" s="1">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>299</v>
       </c>
@@ -24060,11 +23368,8 @@
       <c r="M232" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N232" s="1">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>300</v>
       </c>
@@ -24104,11 +23409,8 @@
       <c r="M233" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="N233" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>301</v>
       </c>
@@ -24148,11 +23450,8 @@
       <c r="M234" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="N234" s="1">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>302</v>
       </c>
@@ -24192,11 +23491,8 @@
       <c r="M235" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="N235" s="1">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>303</v>
       </c>
@@ -24236,11 +23532,8 @@
       <c r="M236" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="N236" s="1">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>306</v>
       </c>
@@ -24280,11 +23573,8 @@
       <c r="M237" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="N237" s="1">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>307</v>
       </c>
@@ -24324,11 +23614,8 @@
       <c r="M238" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="N238" s="1">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>308</v>
       </c>
@@ -24368,11 +23655,8 @@
       <c r="M239" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N239" s="1">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>309</v>
       </c>
@@ -24409,11 +23693,8 @@
       <c r="M240" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N240" s="1">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>313</v>
       </c>
@@ -24453,11 +23734,8 @@
       <c r="M241" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="N241" s="1">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>314</v>
       </c>
@@ -24497,11 +23775,8 @@
       <c r="M242" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="N242" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>317</v>
       </c>
@@ -24541,11 +23816,8 @@
       <c r="M243" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="N243" s="1">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>319</v>
       </c>
@@ -24585,11 +23857,8 @@
       <c r="M244" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N244" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>320</v>
       </c>
@@ -24629,11 +23898,8 @@
       <c r="M245" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="N245" s="1">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>322</v>
       </c>
@@ -24673,11 +23939,8 @@
       <c r="M246" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="N246" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>323</v>
       </c>
@@ -24708,11 +23971,8 @@
       <c r="M247" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="N247" s="1">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>324</v>
       </c>
@@ -24752,11 +24012,8 @@
       <c r="M248" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="N248" s="1">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>325</v>
       </c>
@@ -24796,11 +24053,8 @@
       <c r="M249" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="N249" s="1">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>326</v>
       </c>
@@ -24840,11 +24094,8 @@
       <c r="M250" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N250" s="1">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>327</v>
       </c>
@@ -24884,11 +24135,8 @@
       <c r="M251" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="N251" s="1">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>328</v>
       </c>
@@ -24928,11 +24176,8 @@
       <c r="M252" s="2" t="s">
         <v>1537</v>
       </c>
-      <c r="N252" s="1">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>329</v>
       </c>
@@ -24972,11 +24217,8 @@
       <c r="M253" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="N253" s="1">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>330</v>
       </c>
@@ -25016,11 +24258,8 @@
       <c r="M254" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="N254" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>331</v>
       </c>
@@ -25060,11 +24299,8 @@
       <c r="M255" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="N255" s="1">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>332</v>
       </c>
@@ -25095,11 +24331,8 @@
       <c r="M256" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="N256" s="1">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>333</v>
       </c>
@@ -25139,11 +24372,8 @@
       <c r="M257" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="N257" s="1">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>334</v>
       </c>
@@ -25183,11 +24413,8 @@
       <c r="M258" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="N258" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>335</v>
       </c>
@@ -25227,11 +24454,8 @@
       <c r="M259" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="N259" s="1">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>336</v>
       </c>
@@ -25271,11 +24495,8 @@
       <c r="M260" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="N260" s="1">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>337</v>
       </c>
@@ -25315,11 +24536,8 @@
       <c r="M261" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="N261" s="1">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>338</v>
       </c>
@@ -25359,11 +24577,8 @@
       <c r="M262" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="N262" s="1">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>341</v>
       </c>
@@ -25403,11 +24618,8 @@
       <c r="M263" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="N263" s="1">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>342</v>
       </c>
@@ -25444,11 +24656,8 @@
       <c r="M264" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="N264" s="1">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>343</v>
       </c>
@@ -25488,11 +24697,8 @@
       <c r="M265" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="N265" s="1">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>344</v>
       </c>
@@ -25532,11 +24738,8 @@
       <c r="M266" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="N266" s="1">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>345</v>
       </c>
@@ -25576,11 +24779,8 @@
       <c r="M267" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="N267" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>346</v>
       </c>
@@ -25620,11 +24820,8 @@
       <c r="M268" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="N268" s="1">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>347</v>
       </c>
@@ -25664,11 +24861,8 @@
       <c r="M269" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="N269" s="1">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>348</v>
       </c>
@@ -25708,11 +24902,8 @@
       <c r="M270" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="N270" s="1">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>349</v>
       </c>
@@ -25752,11 +24943,8 @@
       <c r="M271" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="N271" s="1">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>350</v>
       </c>
@@ -25796,11 +24984,8 @@
       <c r="M272" s="2" t="s">
         <v>1698</v>
       </c>
-      <c r="N272" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>351</v>
       </c>
@@ -25840,11 +25025,8 @@
       <c r="M273" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N273" s="1">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>352</v>
       </c>
@@ -25884,11 +25066,8 @@
       <c r="M274" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N274" s="1">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>353</v>
       </c>
@@ -25925,11 +25104,8 @@
       <c r="M275" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N275" s="1">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>354</v>
       </c>
@@ -25969,11 +25145,8 @@
       <c r="M276" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="N276" s="1">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>357</v>
       </c>
@@ -26013,11 +25186,8 @@
       <c r="M277" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="N277" s="1">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>358</v>
       </c>
@@ -26057,11 +25227,8 @@
       <c r="M278" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="N278" s="1">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>359</v>
       </c>
@@ -26101,11 +25268,8 @@
       <c r="M279" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="N279" s="1">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>360</v>
       </c>
@@ -26145,11 +25309,8 @@
       <c r="M280" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="N280" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>361</v>
       </c>
@@ -26189,11 +25350,8 @@
       <c r="M281" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="N281" s="1">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>362</v>
       </c>
@@ -26233,11 +25391,8 @@
       <c r="M282" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="N282" s="1">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>363</v>
       </c>
@@ -26277,11 +25432,8 @@
       <c r="M283" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="N283" s="1">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>364</v>
       </c>
@@ -26321,11 +25473,8 @@
       <c r="M284" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="N284" s="1">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>365</v>
       </c>
@@ -26365,11 +25514,8 @@
       <c r="M285" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="N285" s="1">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>366</v>
       </c>
@@ -26409,11 +25555,8 @@
       <c r="M286" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="N286" s="1">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>368</v>
       </c>
@@ -26453,11 +25596,8 @@
       <c r="M287" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="N287" s="1">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>370</v>
       </c>
@@ -26497,11 +25637,8 @@
       <c r="M288" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="N288" s="1">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>371</v>
       </c>
@@ -26541,11 +25678,8 @@
       <c r="M289" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N289" s="1">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>372</v>
       </c>
@@ -26585,11 +25719,8 @@
       <c r="M290" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="N290" s="1">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>373</v>
       </c>
@@ -26629,11 +25760,8 @@
       <c r="M291" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="N291" s="1">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>374</v>
       </c>
@@ -26673,11 +25801,8 @@
       <c r="M292" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N292" s="1">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>376</v>
       </c>
@@ -26717,11 +25842,8 @@
       <c r="M293" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="N293" s="1">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>377</v>
       </c>
@@ -26761,11 +25883,8 @@
       <c r="M294" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="N294" s="1">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>378</v>
       </c>
@@ -26805,11 +25924,8 @@
       <c r="M295" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="N295" s="1">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>379</v>
       </c>
@@ -26849,11 +25965,8 @@
       <c r="M296" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="N296" s="1">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>380</v>
       </c>
@@ -26893,11 +26006,8 @@
       <c r="M297" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N297" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>381</v>
       </c>
@@ -26937,11 +26047,8 @@
       <c r="M298" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N298" s="1">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>382</v>
       </c>
@@ -26981,11 +26088,8 @@
       <c r="M299" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N299" s="1">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>383</v>
       </c>
@@ -27016,11 +26120,8 @@
       <c r="M300" s="2" t="s">
         <v>1870</v>
       </c>
-      <c r="N300" s="1">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>384</v>
       </c>
@@ -27060,11 +26161,8 @@
       <c r="M301" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="N301" s="1">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>387</v>
       </c>
@@ -27104,11 +26202,8 @@
       <c r="M302" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="N302" s="1">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>388</v>
       </c>
@@ -27148,11 +26243,8 @@
       <c r="M303" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="N303" s="1">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>389</v>
       </c>
@@ -27192,11 +26284,8 @@
       <c r="M304" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="N304" s="1">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>390</v>
       </c>
@@ -27236,11 +26325,8 @@
       <c r="M305" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="N305" s="1">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>391</v>
       </c>
@@ -27280,11 +26366,8 @@
       <c r="M306" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="N306" s="1">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>392</v>
       </c>
@@ -27324,11 +26407,8 @@
       <c r="M307" s="2" t="s">
         <v>1921</v>
       </c>
-      <c r="N307" s="1">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>393</v>
       </c>
@@ -27368,11 +26448,8 @@
       <c r="M308" s="2" t="s">
         <v>1924</v>
       </c>
-      <c r="N308" s="1">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>394</v>
       </c>
@@ -27412,11 +26489,8 @@
       <c r="M309" s="2" t="s">
         <v>1927</v>
       </c>
-      <c r="N309" s="1">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>395</v>
       </c>
@@ -27456,11 +26530,8 @@
       <c r="M310" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="N310" s="1">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>396</v>
       </c>
@@ -27500,11 +26571,8 @@
       <c r="M311" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="N311" s="1">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>397</v>
       </c>
@@ -27544,11 +26612,8 @@
       <c r="M312" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="N312" s="1">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>398</v>
       </c>
@@ -27588,11 +26653,8 @@
       <c r="M313" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="N313" s="1">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>399</v>
       </c>
@@ -27632,11 +26694,8 @@
       <c r="M314" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="N314" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>400</v>
       </c>
@@ -27676,11 +26735,8 @@
       <c r="M315" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="N315" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>401</v>
       </c>
@@ -27720,11 +26776,8 @@
       <c r="M316" s="2" t="s">
         <v>1950</v>
       </c>
-      <c r="N316" s="1">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>402</v>
       </c>
@@ -27764,11 +26817,8 @@
       <c r="M317" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="N317" s="1">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>403</v>
       </c>
@@ -27808,11 +26858,8 @@
       <c r="M318" s="2" t="s">
         <v>1956</v>
       </c>
-      <c r="N318" s="1">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>404</v>
       </c>
@@ -27852,11 +26899,8 @@
       <c r="M319" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="N319" s="1">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>405</v>
       </c>
@@ -27896,11 +26940,8 @@
       <c r="M320" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="N320" s="1">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>406</v>
       </c>
@@ -27940,11 +26981,8 @@
       <c r="M321" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="N321" s="1">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>407</v>
       </c>
@@ -27984,11 +27022,8 @@
       <c r="M322" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="N322" s="1">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>408</v>
       </c>
@@ -28028,11 +27063,8 @@
       <c r="M323" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="N323" s="1">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>409</v>
       </c>
@@ -28072,11 +27104,8 @@
       <c r="M324" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="N324" s="1">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>410</v>
       </c>
@@ -28116,11 +27145,8 @@
       <c r="M325" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="N325" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>411</v>
       </c>
@@ -28160,11 +27186,8 @@
       <c r="M326" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="N326" s="1">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>412</v>
       </c>
@@ -28204,11 +27227,8 @@
       <c r="M327" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="N327" s="1">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>413</v>
       </c>
@@ -28248,11 +27268,8 @@
       <c r="M328" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="N328" s="1">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>414</v>
       </c>
@@ -28292,11 +27309,8 @@
       <c r="M329" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="N329" s="1">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>415</v>
       </c>
@@ -28336,11 +27350,8 @@
       <c r="M330" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="N330" s="1">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>416</v>
       </c>
@@ -28380,11 +27391,8 @@
       <c r="M331" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="N331" s="1">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>417</v>
       </c>
@@ -28424,11 +27432,8 @@
       <c r="M332" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="N332" s="1">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>418</v>
       </c>
@@ -28468,11 +27473,8 @@
       <c r="M333" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="N333" s="1">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>419</v>
       </c>
@@ -28512,11 +27514,8 @@
       <c r="M334" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N334" s="1">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>420</v>
       </c>
@@ -28556,11 +27555,8 @@
       <c r="M335" s="2" t="s">
         <v>2033</v>
       </c>
-      <c r="N335" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>421</v>
       </c>
@@ -28600,11 +27596,8 @@
       <c r="M336" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="N336" s="1">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>422</v>
       </c>
@@ -28644,11 +27637,8 @@
       <c r="M337" s="2" t="s">
         <v>2045</v>
       </c>
-      <c r="N337" s="1">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>423</v>
       </c>
@@ -28688,11 +27678,8 @@
       <c r="M338" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="N338" s="1">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>424</v>
       </c>
@@ -28732,11 +27719,8 @@
       <c r="M339" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="N339" s="1">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>425</v>
       </c>
@@ -28776,11 +27760,8 @@
       <c r="M340" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="N340" s="1">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>426</v>
       </c>
@@ -28820,11 +27801,8 @@
       <c r="M341" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N341" s="1">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>428</v>
       </c>
@@ -28864,11 +27842,8 @@
       <c r="M342" s="2" t="s">
         <v>2067</v>
       </c>
-      <c r="N342" s="1">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>429</v>
       </c>
@@ -28908,11 +27883,8 @@
       <c r="M343" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N343" s="1">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>430</v>
       </c>
@@ -28952,11 +27924,8 @@
       <c r="M344" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N344" s="1">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>431</v>
       </c>
@@ -28996,11 +27965,8 @@
       <c r="M345" s="2" t="s">
         <v>2082</v>
       </c>
-      <c r="N345" s="1">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>432</v>
       </c>
@@ -29040,11 +28006,8 @@
       <c r="M346" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="N346" s="1">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>433</v>
       </c>
@@ -29084,11 +28047,8 @@
       <c r="M347" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="N347" s="1">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>434</v>
       </c>
@@ -29128,11 +28088,8 @@
       <c r="M348" s="2" t="s">
         <v>2097</v>
       </c>
-      <c r="N348" s="1">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>435</v>
       </c>
@@ -29172,11 +28129,8 @@
       <c r="M349" s="2" t="s">
         <v>2101</v>
       </c>
-      <c r="N349" s="1">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>436</v>
       </c>
@@ -29216,11 +28170,8 @@
       <c r="M350" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N350" s="1">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>437</v>
       </c>
@@ -29260,11 +28211,8 @@
       <c r="M351" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N351" s="1">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>438</v>
       </c>
@@ -29304,11 +28252,8 @@
       <c r="M352" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N352" s="1">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>439</v>
       </c>
@@ -29348,11 +28293,8 @@
       <c r="M353" s="2" t="s">
         <v>2122</v>
       </c>
-      <c r="N353" s="1">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>440</v>
       </c>
@@ -29383,11 +28325,8 @@
       <c r="M354" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N354" s="1">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>441</v>
       </c>
@@ -29427,11 +28366,8 @@
       <c r="M355" s="2" t="s">
         <v>2137</v>
       </c>
-      <c r="N355" s="1">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>442</v>
       </c>
@@ -29471,11 +28407,8 @@
       <c r="M356" s="2" t="s">
         <v>2140</v>
       </c>
-      <c r="N356" s="1">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>443</v>
       </c>
@@ -29515,11 +28448,8 @@
       <c r="M357" s="2" t="s">
         <v>2150</v>
       </c>
-      <c r="N357" s="1">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>444</v>
       </c>
@@ -29559,11 +28489,8 @@
       <c r="M358" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N358" s="1">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>445</v>
       </c>
@@ -29603,11 +28530,8 @@
       <c r="M359" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N359" s="1">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>446</v>
       </c>
@@ -29647,11 +28571,8 @@
       <c r="M360" s="2" t="s">
         <v>2169</v>
       </c>
-      <c r="N360" s="1">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>447</v>
       </c>
@@ -29691,11 +28612,8 @@
       <c r="M361" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N361" s="1">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>448</v>
       </c>
@@ -29735,11 +28653,8 @@
       <c r="M362" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N362" s="1">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>449</v>
       </c>
@@ -29770,11 +28685,8 @@
       <c r="M363" s="2" t="s">
         <v>2191</v>
       </c>
-      <c r="N363" s="1">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>450</v>
       </c>
@@ -29814,11 +28726,8 @@
       <c r="M364" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="N364" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>451</v>
       </c>
@@ -29858,11 +28767,8 @@
       <c r="M365" s="2" t="s">
         <v>2209</v>
       </c>
-      <c r="N365" s="1">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>452</v>
       </c>
@@ -29902,11 +28808,8 @@
       <c r="M366" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="N366" s="1">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>454</v>
       </c>
@@ -29946,11 +28849,8 @@
       <c r="M367" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N367" s="1">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>455</v>
       </c>
@@ -29990,11 +28890,8 @@
       <c r="M368" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N368" s="1">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>456</v>
       </c>
@@ -30034,11 +28931,8 @@
       <c r="M369" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N369" s="1">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>457</v>
       </c>
@@ -30078,11 +28972,8 @@
       <c r="M370" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N370" s="1">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>458</v>
       </c>
@@ -30122,11 +29013,8 @@
       <c r="M371" s="2" t="s">
         <v>2244</v>
       </c>
-      <c r="N371" s="1">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>459</v>
       </c>
@@ -30166,11 +29054,8 @@
       <c r="M372" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="N372" s="1">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>460</v>
       </c>
@@ -30207,11 +29092,8 @@
       <c r="M373" s="2" t="s">
         <v>2255</v>
       </c>
-      <c r="N373" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>462</v>
       </c>
@@ -30251,11 +29133,8 @@
       <c r="M374" s="2" t="s">
         <v>2258</v>
       </c>
-      <c r="N374" s="1">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>464</v>
       </c>
@@ -30295,11 +29174,8 @@
       <c r="M375" s="2" t="s">
         <v>2262</v>
       </c>
-      <c r="N375" s="1">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>465</v>
       </c>
@@ -30327,11 +29203,8 @@
       <c r="M376" s="2" t="s">
         <v>2268</v>
       </c>
-      <c r="N376" s="1">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>466</v>
       </c>
@@ -30371,11 +29244,8 @@
       <c r="M377" s="2" t="s">
         <v>2277</v>
       </c>
-      <c r="N377" s="1">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>467</v>
       </c>
@@ -30406,11 +29276,8 @@
       <c r="M378" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N378" s="1">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>468</v>
       </c>
@@ -30450,11 +29317,8 @@
       <c r="M379" s="2" t="s">
         <v>2284</v>
       </c>
-      <c r="N379" s="1">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>469</v>
       </c>
@@ -30494,11 +29358,8 @@
       <c r="M380" s="2" t="s">
         <v>2292</v>
       </c>
-      <c r="N380" s="1">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>470</v>
       </c>
@@ -30538,11 +29399,8 @@
       <c r="M381" s="2" t="s">
         <v>2301</v>
       </c>
-      <c r="N381" s="1">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>471</v>
       </c>
@@ -30573,11 +29431,8 @@
       <c r="M382" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="N382" s="1">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>472</v>
       </c>
@@ -30617,11 +29472,8 @@
       <c r="M383" s="2" t="s">
         <v>2316</v>
       </c>
-      <c r="N383" s="1">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>473</v>
       </c>
@@ -30661,11 +29513,8 @@
       <c r="M384" s="2" t="s">
         <v>2325</v>
       </c>
-      <c r="N384" s="1">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>474</v>
       </c>
@@ -30705,11 +29554,8 @@
       <c r="M385" s="2" t="s">
         <v>2334</v>
       </c>
-      <c r="N385" s="1">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>475</v>
       </c>
@@ -30749,11 +29595,8 @@
       <c r="M386" s="2" t="s">
         <v>2343</v>
       </c>
-      <c r="N386" s="1">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>476</v>
       </c>
@@ -30793,11 +29636,8 @@
       <c r="M387" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N387" s="1">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>477</v>
       </c>
@@ -30837,11 +29677,8 @@
       <c r="M388" s="2" t="s">
         <v>2348</v>
       </c>
-      <c r="N388" s="1">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>478</v>
       </c>
@@ -30881,11 +29718,8 @@
       <c r="M389" s="2" t="s">
         <v>2357</v>
       </c>
-      <c r="N389" s="1">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>479</v>
       </c>
@@ -30925,11 +29759,8 @@
       <c r="M390" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N390" s="1">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>480</v>
       </c>
@@ -30969,11 +29800,8 @@
       <c r="M391" s="2" t="s">
         <v>2371</v>
       </c>
-      <c r="N391" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>481</v>
       </c>
@@ -31013,11 +29841,8 @@
       <c r="M392" s="2" t="s">
         <v>2380</v>
       </c>
-      <c r="N392" s="1">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>482</v>
       </c>
@@ -31057,11 +29882,8 @@
       <c r="M393" s="2" t="s">
         <v>2386</v>
       </c>
-      <c r="N393" s="1">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>483</v>
       </c>
@@ -31101,11 +29923,8 @@
       <c r="M394" s="2" t="s">
         <v>2392</v>
       </c>
-      <c r="N394" s="1">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>484</v>
       </c>
@@ -31145,11 +29964,8 @@
       <c r="M395" s="2" t="s">
         <v>2398</v>
       </c>
-      <c r="N395" s="1">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>485</v>
       </c>
@@ -31189,11 +30005,8 @@
       <c r="M396" s="2" t="s">
         <v>2404</v>
       </c>
-      <c r="N396" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>486</v>
       </c>
@@ -31233,11 +30046,8 @@
       <c r="M397" s="2" t="s">
         <v>2412</v>
       </c>
-      <c r="N397" s="1">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>487</v>
       </c>
@@ -31277,11 +30087,8 @@
       <c r="M398" s="2" t="s">
         <v>2418</v>
       </c>
-      <c r="N398" s="1">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>488</v>
       </c>
@@ -31321,11 +30128,8 @@
       <c r="M399" s="2" t="s">
         <v>2427</v>
       </c>
-      <c r="N399" s="1">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>489</v>
       </c>
@@ -31365,11 +30169,8 @@
       <c r="M400" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N400" s="1">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>490</v>
       </c>
@@ -31409,11 +30210,8 @@
       <c r="M401" s="2" t="s">
         <v>2434</v>
       </c>
-      <c r="N401" s="1">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>492</v>
       </c>
@@ -31453,11 +30251,8 @@
       <c r="M402" s="2" t="s">
         <v>2443</v>
       </c>
-      <c r="N402" s="1">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>493</v>
       </c>
@@ -31497,11 +30292,8 @@
       <c r="M403" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N403" s="1">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>494</v>
       </c>
@@ -31541,11 +30333,8 @@
       <c r="M404" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N404" s="1">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>495</v>
       </c>
@@ -31585,11 +30374,8 @@
       <c r="M405" s="2" t="s">
         <v>2452</v>
       </c>
-      <c r="N405" s="1">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>496</v>
       </c>
@@ -31629,11 +30415,8 @@
       <c r="M406" s="2" t="s">
         <v>2455</v>
       </c>
-      <c r="N406" s="1">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>497</v>
       </c>
@@ -31673,11 +30456,8 @@
       <c r="M407" s="2" t="s">
         <v>2464</v>
       </c>
-      <c r="N407" s="1">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>498</v>
       </c>
@@ -31717,11 +30497,8 @@
       <c r="M408" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N408" s="1">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>499</v>
       </c>
@@ -31761,11 +30538,8 @@
       <c r="M409" s="2" t="s">
         <v>2481</v>
       </c>
-      <c r="N409" s="1">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>500</v>
       </c>
@@ -31802,11 +30576,8 @@
       <c r="M410" s="2" t="s">
         <v>2487</v>
       </c>
-      <c r="N410" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>501</v>
       </c>
@@ -31846,11 +30617,8 @@
       <c r="M411" s="2" t="s">
         <v>2496</v>
       </c>
-      <c r="N411" s="1">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>502</v>
       </c>
@@ -31890,11 +30658,8 @@
       <c r="M412" s="2" t="s">
         <v>2505</v>
       </c>
-      <c r="N412" s="1">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>503</v>
       </c>
@@ -31934,11 +30699,8 @@
       <c r="M413" s="2" t="s">
         <v>2508</v>
       </c>
-      <c r="N413" s="1">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>504</v>
       </c>
@@ -31978,11 +30740,8 @@
       <c r="M414" s="2" t="s">
         <v>2514</v>
       </c>
-      <c r="N414" s="1">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>505</v>
       </c>
@@ -32022,11 +30781,8 @@
       <c r="M415" s="2" t="s">
         <v>2520</v>
       </c>
-      <c r="N415" s="1">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>506</v>
       </c>
@@ -32063,11 +30819,8 @@
       <c r="M416" s="2" t="s">
         <v>2528</v>
       </c>
-      <c r="N416" s="1">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>507</v>
       </c>
@@ -32107,11 +30860,8 @@
       <c r="M417" s="2" t="s">
         <v>2535</v>
       </c>
-      <c r="N417" s="1">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>508</v>
       </c>
@@ -32151,11 +30901,8 @@
       <c r="M418" s="2" t="s">
         <v>2538</v>
       </c>
-      <c r="N418" s="1">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>509</v>
       </c>
@@ -32195,11 +30942,8 @@
       <c r="M419" s="2" t="s">
         <v>2547</v>
       </c>
-      <c r="N419" s="1">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>510</v>
       </c>
@@ -32239,11 +30983,8 @@
       <c r="M420" s="2" t="s">
         <v>2556</v>
       </c>
-      <c r="N420" s="1">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>511</v>
       </c>
@@ -32283,11 +31024,8 @@
       <c r="M421" s="2" t="s">
         <v>2559</v>
       </c>
-      <c r="N421" s="1">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>512</v>
       </c>
@@ -32321,11 +31059,8 @@
       <c r="M422" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N422" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>513</v>
       </c>
@@ -32365,11 +31100,8 @@
       <c r="M423" s="2" t="s">
         <v>2573</v>
       </c>
-      <c r="N423" s="1">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>514</v>
       </c>
@@ -32409,11 +31141,8 @@
       <c r="M424" s="2" t="s">
         <v>2579</v>
       </c>
-      <c r="N424" s="1">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>515</v>
       </c>
@@ -32453,11 +31182,8 @@
       <c r="M425" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N425" s="1">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>516</v>
       </c>
@@ -32494,11 +31220,8 @@
       <c r="M426" s="2" t="s">
         <v>2596</v>
       </c>
-      <c r="N426" s="1">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>517</v>
       </c>
@@ -32538,11 +31261,8 @@
       <c r="M427" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N427" s="1">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>518</v>
       </c>
@@ -32573,11 +31293,8 @@
       <c r="M428" s="2" t="s">
         <v>2610</v>
       </c>
-      <c r="N428" s="1">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>519</v>
       </c>
@@ -32617,11 +31334,8 @@
       <c r="M429" s="2" t="s">
         <v>2613</v>
       </c>
-      <c r="N429" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>520</v>
       </c>
@@ -32661,11 +31375,8 @@
       <c r="M430" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N430" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>521</v>
       </c>
@@ -32705,11 +31416,8 @@
       <c r="M431" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N431" s="1">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>522</v>
       </c>
@@ -32746,11 +31454,8 @@
       <c r="M432" s="2" t="s">
         <v>2634</v>
       </c>
-      <c r="N432" s="1">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>523</v>
       </c>
@@ -32790,11 +31495,8 @@
       <c r="M433" s="2" t="s">
         <v>2642</v>
       </c>
-      <c r="N433" s="1">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>524</v>
       </c>
@@ -32831,11 +31533,8 @@
       <c r="M434" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N434" s="1">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>526</v>
       </c>
@@ -32872,11 +31571,8 @@
       <c r="M435" s="2" t="s">
         <v>2655</v>
       </c>
-      <c r="N435" s="1">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>528</v>
       </c>
@@ -32916,11 +31612,8 @@
       <c r="M436" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="N436" s="1">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>529</v>
       </c>
@@ -32957,11 +31650,8 @@
       <c r="M437" s="2" t="s">
         <v>2674</v>
       </c>
-      <c r="N437" s="1">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>530</v>
       </c>
@@ -33001,11 +31691,8 @@
       <c r="M438" s="2" t="s">
         <v>2677</v>
       </c>
-      <c r="N438" s="1">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>531</v>
       </c>
@@ -33045,11 +31732,8 @@
       <c r="M439" s="2" t="s">
         <v>2687</v>
       </c>
-      <c r="N439" s="1">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>532</v>
       </c>
@@ -33089,11 +31773,8 @@
       <c r="M440" s="2" t="s">
         <v>2690</v>
       </c>
-      <c r="N440" s="1">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>533</v>
       </c>
@@ -33133,11 +31814,8 @@
       <c r="M441" s="2" t="s">
         <v>2699</v>
       </c>
-      <c r="N441" s="1">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>534</v>
       </c>
@@ -33177,11 +31855,8 @@
       <c r="M442" s="2" t="s">
         <v>2705</v>
       </c>
-      <c r="N442" s="1">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>535</v>
       </c>
@@ -33221,11 +31896,8 @@
       <c r="M443" s="2" t="s">
         <v>2713</v>
       </c>
-      <c r="N443" s="1">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>536</v>
       </c>
@@ -33265,11 +31937,8 @@
       <c r="M444" s="2" t="s">
         <v>2721</v>
       </c>
-      <c r="N444" s="1">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>537</v>
       </c>
@@ -33309,11 +31978,8 @@
       <c r="M445" s="2" t="s">
         <v>2728</v>
       </c>
-      <c r="N445" s="1">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>538</v>
       </c>
@@ -33341,11 +32007,8 @@
       <c r="M446" s="2" t="s">
         <v>2734</v>
       </c>
-      <c r="N446" s="1">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>539</v>
       </c>
@@ -33385,11 +32048,8 @@
       <c r="M447" s="2" t="s">
         <v>2744</v>
       </c>
-      <c r="N447" s="1">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>540</v>
       </c>
@@ -33429,11 +32089,8 @@
       <c r="M448" s="2" t="s">
         <v>2753</v>
       </c>
-      <c r="N448" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>541</v>
       </c>
@@ -33461,11 +32118,8 @@
       <c r="M449" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="N449" s="1">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>542</v>
       </c>
@@ -33505,11 +32159,8 @@
       <c r="M450" s="2" t="s">
         <v>2764</v>
       </c>
-      <c r="N450" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>543</v>
       </c>
@@ -33549,11 +32200,8 @@
       <c r="M451" s="2" t="s">
         <v>2771</v>
       </c>
-      <c r="N451" s="1">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>544</v>
       </c>
@@ -33593,11 +32241,8 @@
       <c r="M452" s="2" t="s">
         <v>2774</v>
       </c>
-      <c r="N452" s="1">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>545</v>
       </c>
@@ -33625,11 +32270,8 @@
       <c r="M453" s="2" t="s">
         <v>2775</v>
       </c>
-      <c r="N453" s="1">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>546</v>
       </c>
@@ -33669,11 +32311,8 @@
       <c r="M454" s="2" t="s">
         <v>2785</v>
       </c>
-      <c r="N454" s="1">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>547</v>
       </c>
@@ -33713,11 +32352,8 @@
       <c r="M455" s="2" t="s">
         <v>2788</v>
       </c>
-      <c r="N455" s="1">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>548</v>
       </c>
@@ -33757,11 +32393,8 @@
       <c r="M456" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N456" s="1">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>549</v>
       </c>
@@ -33801,11 +32434,8 @@
       <c r="M457" s="2" t="s">
         <v>2798</v>
       </c>
-      <c r="N457" s="1">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>550</v>
       </c>
@@ -33845,11 +32475,8 @@
       <c r="M458" s="2" t="s">
         <v>2807</v>
       </c>
-      <c r="N458" s="1">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>551</v>
       </c>
@@ -33889,11 +32516,8 @@
       <c r="M459" s="2" t="s">
         <v>2817</v>
       </c>
-      <c r="N459" s="1">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>552</v>
       </c>
@@ -33930,11 +32554,8 @@
       <c r="M460" s="2" t="s">
         <v>2823</v>
       </c>
-      <c r="N460" s="1">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>553</v>
       </c>
@@ -33971,11 +32592,8 @@
       <c r="M461" s="2" t="s">
         <v>2831</v>
       </c>
-      <c r="N461" s="1">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>554</v>
       </c>
@@ -34006,11 +32624,8 @@
       <c r="M462" s="2" t="s">
         <v>2837</v>
       </c>
-      <c r="N462" s="1">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>555</v>
       </c>
@@ -34041,11 +32656,8 @@
       <c r="M463" s="2" t="s">
         <v>2840</v>
       </c>
-      <c r="N463" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>556</v>
       </c>
@@ -34085,11 +32697,8 @@
       <c r="M464" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N464" s="1">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>557</v>
       </c>
@@ -34129,11 +32738,8 @@
       <c r="M465" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N465" s="1">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>558</v>
       </c>
@@ -34173,11 +32779,8 @@
       <c r="M466" s="2" t="s">
         <v>2853</v>
       </c>
-      <c r="N466" s="1">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>559</v>
       </c>
@@ -34217,11 +32820,8 @@
       <c r="M467" s="2" t="s">
         <v>2863</v>
       </c>
-      <c r="N467" s="1">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>561</v>
       </c>
@@ -34261,11 +32861,8 @@
       <c r="M468" s="2" t="s">
         <v>2866</v>
       </c>
-      <c r="N468" s="1">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>562</v>
       </c>
@@ -34305,11 +32902,8 @@
       <c r="M469" s="2" t="s">
         <v>2872</v>
       </c>
-      <c r="N469" s="1">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>563</v>
       </c>
@@ -34349,11 +32943,8 @@
       <c r="M470" s="2" t="s">
         <v>2882</v>
       </c>
-      <c r="N470" s="1">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>564</v>
       </c>
@@ -34393,11 +32984,8 @@
       <c r="M471" s="2" t="s">
         <v>2884</v>
       </c>
-      <c r="N471" s="1">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>565</v>
       </c>
@@ -34437,11 +33025,8 @@
       <c r="M472" s="2" t="s">
         <v>2893</v>
       </c>
-      <c r="N472" s="1">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>566</v>
       </c>
@@ -34481,11 +33066,8 @@
       <c r="M473" s="2" t="s">
         <v>2665</v>
       </c>
-      <c r="N473" s="1">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>567</v>
       </c>
@@ -34525,11 +33107,8 @@
       <c r="M474" s="2" t="s">
         <v>2903</v>
       </c>
-      <c r="N474" s="1">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>568</v>
       </c>
@@ -34569,11 +33148,8 @@
       <c r="M475" s="2" t="s">
         <v>2912</v>
       </c>
-      <c r="N475" s="1">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>569</v>
       </c>
@@ -34613,11 +33189,8 @@
       <c r="M476" s="2" t="s">
         <v>2921</v>
       </c>
-      <c r="N476" s="1">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>570</v>
       </c>
@@ -34657,11 +33230,8 @@
       <c r="M477" s="2" t="s">
         <v>2771</v>
       </c>
-      <c r="N477" s="1">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>571</v>
       </c>
@@ -34701,11 +33271,8 @@
       <c r="M478" s="2" t="s">
         <v>2931</v>
       </c>
-      <c r="N478" s="1">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>572</v>
       </c>
@@ -34745,11 +33312,8 @@
       <c r="M479" s="2" t="s">
         <v>2940</v>
       </c>
-      <c r="N479" s="1">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>573</v>
       </c>
@@ -34789,11 +33353,8 @@
       <c r="M480" s="2" t="s">
         <v>2949</v>
       </c>
-      <c r="N480" s="1">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>574</v>
       </c>
@@ -34833,11 +33394,8 @@
       <c r="M481" s="2" t="s">
         <v>2952</v>
       </c>
-      <c r="N481" s="1">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>575</v>
       </c>
@@ -34871,11 +33429,8 @@
       <c r="M482" s="2" t="s">
         <v>2957</v>
       </c>
-      <c r="N482" s="1">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>576</v>
       </c>
@@ -34915,11 +33470,8 @@
       <c r="M483" s="2" t="s">
         <v>2964</v>
       </c>
-      <c r="N483" s="1">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>577</v>
       </c>
@@ -34959,11 +33511,8 @@
       <c r="M484" s="2" t="s">
         <v>2967</v>
       </c>
-      <c r="N484" s="1">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>578</v>
       </c>
@@ -35003,11 +33552,8 @@
       <c r="M485" s="2" t="s">
         <v>2952</v>
       </c>
-      <c r="N485" s="1">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>579</v>
       </c>
@@ -35047,11 +33593,8 @@
       <c r="M486" s="2" t="s">
         <v>2977</v>
       </c>
-      <c r="N486" s="1">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>582</v>
       </c>
@@ -35091,11 +33634,8 @@
       <c r="M487" s="2" t="s">
         <v>2980</v>
       </c>
-      <c r="N487" s="1">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>583</v>
       </c>
@@ -35135,11 +33675,8 @@
       <c r="M488" s="2" t="s">
         <v>2983</v>
       </c>
-      <c r="N488" s="1">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>585</v>
       </c>
@@ -35179,11 +33716,8 @@
       <c r="M489" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N489" s="1">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>586</v>
       </c>
@@ -35223,11 +33757,8 @@
       <c r="M490" s="2" t="s">
         <v>2992</v>
       </c>
-      <c r="N490" s="1">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>587</v>
       </c>
@@ -35267,11 +33798,8 @@
       <c r="M491" s="2" t="s">
         <v>2998</v>
       </c>
-      <c r="N491" s="1">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>588</v>
       </c>
@@ -35311,11 +33839,8 @@
       <c r="M492" s="2" t="s">
         <v>3006</v>
       </c>
-      <c r="N492" s="1">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>589</v>
       </c>
@@ -35355,11 +33880,8 @@
       <c r="M493" s="2" t="s">
         <v>3015</v>
       </c>
-      <c r="N493" s="1">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>590</v>
       </c>
@@ -35396,11 +33918,8 @@
       <c r="M494" s="2" t="s">
         <v>3018</v>
       </c>
-      <c r="N494" s="1">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>591</v>
       </c>
@@ -35440,11 +33959,8 @@
       <c r="M495" s="2" t="s">
         <v>3028</v>
       </c>
-      <c r="N495" s="1">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>592</v>
       </c>
@@ -35484,11 +34000,8 @@
       <c r="M496" s="2" t="s">
         <v>3036</v>
       </c>
-      <c r="N496" s="1">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>593</v>
       </c>
@@ -35522,11 +34035,8 @@
       <c r="M497" s="2" t="s">
         <v>3043</v>
       </c>
-      <c r="N497" s="1">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>594</v>
       </c>
@@ -35566,11 +34076,8 @@
       <c r="M498" s="2" t="s">
         <v>3015</v>
       </c>
-      <c r="N498" s="1">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>595</v>
       </c>
@@ -35610,11 +34117,8 @@
       <c r="M499" s="2" t="s">
         <v>3049</v>
       </c>
-      <c r="N499" s="1">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>596</v>
       </c>
@@ -35654,11 +34158,8 @@
       <c r="M500" s="2" t="s">
         <v>3055</v>
       </c>
-      <c r="N500" s="1">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>597</v>
       </c>
@@ -35698,11 +34199,8 @@
       <c r="M501" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N501" s="1">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>598</v>
       </c>
@@ -35742,11 +34240,8 @@
       <c r="M502" s="2" t="s">
         <v>3060</v>
       </c>
-      <c r="N502" s="1">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>600</v>
       </c>
@@ -35786,11 +34281,8 @@
       <c r="M503" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N503" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>602</v>
       </c>
@@ -35830,11 +34322,8 @@
       <c r="M504" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N504" s="1">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>603</v>
       </c>
@@ -35874,11 +34363,8 @@
       <c r="M505" s="2" t="s">
         <v>3067</v>
       </c>
-      <c r="N505" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>604</v>
       </c>
@@ -35918,11 +34404,8 @@
       <c r="M506" s="2" t="s">
         <v>3070</v>
       </c>
-      <c r="N506" s="1">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>605</v>
       </c>
@@ -35962,11 +34445,8 @@
       <c r="M507" s="2" t="s">
         <v>3079</v>
       </c>
-      <c r="N507" s="1">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>606</v>
       </c>
@@ -36006,11 +34486,8 @@
       <c r="M508" s="2" t="s">
         <v>3082</v>
       </c>
-      <c r="N508" s="1">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>607</v>
       </c>
@@ -36050,11 +34527,8 @@
       <c r="M509" s="2" t="s">
         <v>3091</v>
       </c>
-      <c r="N509" s="1">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>608</v>
       </c>
@@ -36085,11 +34559,8 @@
       <c r="M510" s="2" t="s">
         <v>3098</v>
       </c>
-      <c r="N510" s="1">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>609</v>
       </c>
@@ -36129,11 +34600,8 @@
       <c r="M511" s="2" t="s">
         <v>3101</v>
       </c>
-      <c r="N511" s="1">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>611</v>
       </c>
@@ -36173,11 +34641,8 @@
       <c r="M512" s="2" t="s">
         <v>3104</v>
       </c>
-      <c r="N512" s="1">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>612</v>
       </c>
@@ -36214,11 +34679,8 @@
       <c r="M513" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N513" s="1">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>613</v>
       </c>
@@ -36258,11 +34720,8 @@
       <c r="M514" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N514" s="1">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>614</v>
       </c>
@@ -36302,11 +34761,8 @@
       <c r="M515" s="2" t="s">
         <v>3117</v>
       </c>
-      <c r="N515" s="1">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>615</v>
       </c>
@@ -36346,11 +34802,8 @@
       <c r="M516" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N516" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>617</v>
       </c>
@@ -36390,11 +34843,8 @@
       <c r="M517" s="2" t="s">
         <v>3125</v>
       </c>
-      <c r="N517" s="1">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>618</v>
       </c>
@@ -36434,11 +34884,8 @@
       <c r="M518" s="2" t="s">
         <v>3130</v>
       </c>
-      <c r="N518" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>619</v>
       </c>
@@ -36475,11 +34922,8 @@
       <c r="M519" s="2" t="s">
         <v>3133</v>
       </c>
-      <c r="N519" s="1">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>620</v>
       </c>
@@ -36519,11 +34963,8 @@
       <c r="M520" s="2" t="s">
         <v>3142</v>
       </c>
-      <c r="N520" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>621</v>
       </c>
@@ -36563,11 +35004,8 @@
       <c r="M521" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N521" s="1">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>622</v>
       </c>
@@ -36607,11 +35045,8 @@
       <c r="M522" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N522" s="1">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>623</v>
       </c>
@@ -36651,11 +35086,8 @@
       <c r="M523" s="2" t="s">
         <v>3165</v>
       </c>
-      <c r="N523" s="1">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>624</v>
       </c>
@@ -36695,11 +35127,8 @@
       <c r="M524" s="2" t="s">
         <v>3168</v>
       </c>
-      <c r="N524" s="1">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>625</v>
       </c>
@@ -36739,11 +35168,8 @@
       <c r="M525" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N525" s="1">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>626</v>
       </c>
@@ -36783,11 +35209,8 @@
       <c r="M526" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N526" s="1">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>627</v>
       </c>
@@ -36827,11 +35250,8 @@
       <c r="M527" s="2" t="s">
         <v>3188</v>
       </c>
-      <c r="N527" s="1">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>628</v>
       </c>
@@ -36862,11 +35282,8 @@
       <c r="M528" s="2" t="s">
         <v>3195</v>
       </c>
-      <c r="N528" s="1">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>629</v>
       </c>
@@ -36906,11 +35323,8 @@
       <c r="M529" s="2" t="s">
         <v>3165</v>
       </c>
-      <c r="N529" s="1">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>630</v>
       </c>
@@ -36950,11 +35364,8 @@
       <c r="M530" s="2" t="s">
         <v>3198</v>
       </c>
-      <c r="N530" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>631</v>
       </c>
@@ -36994,11 +35405,8 @@
       <c r="M531" s="2" t="s">
         <v>3208</v>
       </c>
-      <c r="N531" s="1">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>632</v>
       </c>
@@ -37038,11 +35446,8 @@
       <c r="M532" s="2" t="s">
         <v>3218</v>
       </c>
-      <c r="N532" s="1">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>633</v>
       </c>
@@ -37082,11 +35487,8 @@
       <c r="M533" s="2" t="s">
         <v>3221</v>
       </c>
-      <c r="N533" s="1">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>634</v>
       </c>
@@ -37123,11 +35525,8 @@
       <c r="M534" s="2" t="s">
         <v>3227</v>
       </c>
-      <c r="N534" s="1">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>635</v>
       </c>
@@ -37167,11 +35566,8 @@
       <c r="M535" s="2" t="s">
         <v>3236</v>
       </c>
-      <c r="N535" s="1">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>636</v>
       </c>
@@ -37211,11 +35607,8 @@
       <c r="M536" s="2" t="s">
         <v>3239</v>
       </c>
-      <c r="N536" s="1">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>637</v>
       </c>
@@ -37255,11 +35648,8 @@
       <c r="M537" s="2" t="s">
         <v>3249</v>
       </c>
-      <c r="N537" s="1">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>638</v>
       </c>
@@ -37299,11 +35689,8 @@
       <c r="M538" s="2" t="s">
         <v>3165</v>
       </c>
-      <c r="N538" s="1">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>639</v>
       </c>
@@ -37343,11 +35730,8 @@
       <c r="M539" s="2" t="s">
         <v>3258</v>
       </c>
-      <c r="N539" s="1">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>640</v>
       </c>
@@ -37387,11 +35771,8 @@
       <c r="M540" s="2" t="s">
         <v>3188</v>
       </c>
-      <c r="N540" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>641</v>
       </c>
@@ -37431,11 +35812,8 @@
       <c r="M541" s="2" t="s">
         <v>3266</v>
       </c>
-      <c r="N541" s="1">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>642</v>
       </c>
@@ -37475,11 +35853,8 @@
       <c r="M542" s="2" t="s">
         <v>3272</v>
       </c>
-      <c r="N542" s="1">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>643</v>
       </c>
@@ -37519,11 +35894,8 @@
       <c r="M543" s="2" t="s">
         <v>3275</v>
       </c>
-      <c r="N543" s="1">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>644</v>
       </c>
@@ -37563,11 +35935,8 @@
       <c r="M544" s="2" t="s">
         <v>3283</v>
       </c>
-      <c r="N544" s="1">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>645</v>
       </c>
@@ -37607,11 +35976,8 @@
       <c r="M545" s="2" t="s">
         <v>3289</v>
       </c>
-      <c r="N545" s="1">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>646</v>
       </c>
@@ -37651,11 +36017,8 @@
       <c r="M546" s="2" t="s">
         <v>3292</v>
       </c>
-      <c r="N546" s="1">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>647</v>
       </c>
@@ -37695,11 +36058,8 @@
       <c r="M547" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N547" s="1">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>649</v>
       </c>
@@ -37739,11 +36099,8 @@
       <c r="M548" s="2" t="s">
         <v>3298</v>
       </c>
-      <c r="N548" s="1">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>650</v>
       </c>
@@ -37783,11 +36140,8 @@
       <c r="M549" s="2" t="s">
         <v>3308</v>
       </c>
-      <c r="N549" s="1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>652</v>
       </c>
@@ -37827,11 +36181,8 @@
       <c r="M550" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N550" s="1">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>654</v>
       </c>
@@ -37868,11 +36219,8 @@
       <c r="M551" s="2" t="s">
         <v>3323</v>
       </c>
-      <c r="N551" s="1">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>655</v>
       </c>
@@ -37912,11 +36260,8 @@
       <c r="M552" s="2" t="s">
         <v>3332</v>
       </c>
-      <c r="N552" s="1">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>656</v>
       </c>
@@ -37953,11 +36298,8 @@
       <c r="M553" s="2" t="s">
         <v>3337</v>
       </c>
-      <c r="N553" s="1">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>657</v>
       </c>
@@ -37994,11 +36336,8 @@
       <c r="M554" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N554" s="1">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>658</v>
       </c>
@@ -38038,11 +36377,8 @@
       <c r="M555" s="2" t="s">
         <v>3345</v>
       </c>
-      <c r="N555" s="1">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>659</v>
       </c>
@@ -38079,11 +36415,8 @@
       <c r="M556" s="2" t="s">
         <v>3347</v>
       </c>
-      <c r="N556" s="1">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>660</v>
       </c>
@@ -38117,11 +36450,8 @@
       <c r="M557" s="2" t="s">
         <v>3352</v>
       </c>
-      <c r="N557" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>661</v>
       </c>
@@ -38152,11 +36482,8 @@
       <c r="M558" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N558" s="1">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>662</v>
       </c>
@@ -38196,11 +36523,8 @@
       <c r="M559" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N559" s="1">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>663</v>
       </c>
@@ -38240,11 +36564,8 @@
       <c r="M560" s="2" t="s">
         <v>3364</v>
       </c>
-      <c r="N560" s="1">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>664</v>
       </c>
@@ -38284,11 +36605,8 @@
       <c r="M561" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N561" s="1">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>665</v>
       </c>
@@ -38325,11 +36643,8 @@
       <c r="M562" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N562" s="1">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>666</v>
       </c>
@@ -38369,11 +36684,8 @@
       <c r="M563" s="2" t="s">
         <v>3375</v>
       </c>
-      <c r="N563" s="1">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>667</v>
       </c>
@@ -38413,11 +36725,8 @@
       <c r="M564" s="2" t="s">
         <v>3385</v>
       </c>
-      <c r="N564" s="1">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>668</v>
       </c>
@@ -38457,11 +36766,8 @@
       <c r="M565" s="2" t="s">
         <v>3388</v>
       </c>
-      <c r="N565" s="1">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>669</v>
       </c>
@@ -38498,11 +36804,8 @@
       <c r="M566" s="2" t="s">
         <v>3391</v>
       </c>
-      <c r="N566" s="1">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>670</v>
       </c>
@@ -38539,11 +36842,8 @@
       <c r="M567" s="2" t="s">
         <v>3398</v>
       </c>
-      <c r="N567" s="1">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>673</v>
       </c>
@@ -38583,11 +36883,8 @@
       <c r="M568" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N568" s="1">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>674</v>
       </c>
@@ -38624,11 +36921,8 @@
       <c r="M569" s="2" t="s">
         <v>3410</v>
       </c>
-      <c r="N569" s="1">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>675</v>
       </c>
@@ -38665,11 +36959,8 @@
       <c r="M570" s="2" t="s">
         <v>3418</v>
       </c>
-      <c r="N570" s="1">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>676</v>
       </c>
@@ -38709,11 +37000,8 @@
       <c r="M571" s="2" t="s">
         <v>3427</v>
       </c>
-      <c r="N571" s="1">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>677</v>
       </c>
@@ -38753,11 +37041,8 @@
       <c r="M572" s="2" t="s">
         <v>3437</v>
       </c>
-      <c r="N572" s="1">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>678</v>
       </c>
@@ -38797,11 +37082,8 @@
       <c r="M573" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N573" s="1">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>679</v>
       </c>
@@ -38841,11 +37123,8 @@
       <c r="M574" s="2" t="s">
         <v>3442</v>
       </c>
-      <c r="N574" s="1">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>680</v>
       </c>
@@ -38885,11 +37164,8 @@
       <c r="M575" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N575" s="1">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>681</v>
       </c>
@@ -38929,11 +37205,8 @@
       <c r="M576" s="2" t="s">
         <v>3454</v>
       </c>
-      <c r="N576" s="1">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>682</v>
       </c>
@@ -38970,11 +37243,8 @@
       <c r="M577" s="2" t="s">
         <v>3463</v>
       </c>
-      <c r="N577" s="1">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>683</v>
       </c>
@@ -39014,11 +37284,8 @@
       <c r="M578" s="2" t="s">
         <v>3472</v>
       </c>
-      <c r="N578" s="1">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>684</v>
       </c>
@@ -39058,11 +37325,8 @@
       <c r="M579" s="2" t="s">
         <v>3479</v>
       </c>
-      <c r="N579" s="1">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>685</v>
       </c>
@@ -39102,11 +37366,8 @@
       <c r="M580" s="2" t="s">
         <v>3472</v>
       </c>
-      <c r="N580" s="1">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>686</v>
       </c>
@@ -39143,11 +37404,8 @@
       <c r="M581" s="2" t="s">
         <v>3485</v>
       </c>
-      <c r="N581" s="1">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>687</v>
       </c>
@@ -39184,11 +37442,8 @@
       <c r="M582" s="2" t="s">
         <v>3492</v>
       </c>
-      <c r="N582" s="1">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>688</v>
       </c>
@@ -39228,11 +37483,8 @@
       <c r="M583" s="2" t="s">
         <v>3495</v>
       </c>
-      <c r="N583" s="1">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>689</v>
       </c>
@@ -39272,11 +37524,8 @@
       <c r="M584" s="2" t="s">
         <v>3505</v>
       </c>
-      <c r="N584" s="1">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>690</v>
       </c>
@@ -39316,11 +37565,8 @@
       <c r="M585" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N585" s="1">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>691</v>
       </c>
@@ -39360,11 +37606,8 @@
       <c r="M586" s="2" t="s">
         <v>3519</v>
       </c>
-      <c r="N586" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>693</v>
       </c>
@@ -39395,11 +37638,8 @@
       <c r="M587" s="2" t="s">
         <v>3525</v>
       </c>
-      <c r="N587" s="1">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>695</v>
       </c>
@@ -39430,11 +37670,8 @@
       <c r="M588" s="2" t="s">
         <v>3531</v>
       </c>
-      <c r="N588" s="1">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>696</v>
       </c>
@@ -39474,11 +37711,8 @@
       <c r="M589" s="2" t="s">
         <v>3541</v>
       </c>
-      <c r="N589" s="1">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>697</v>
       </c>
@@ -39518,11 +37752,8 @@
       <c r="M590" s="2" t="s">
         <v>3549</v>
       </c>
-      <c r="N590" s="1">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>698</v>
       </c>
@@ -39553,11 +37784,8 @@
       <c r="M591" s="2" t="s">
         <v>3525</v>
       </c>
-      <c r="N591" s="1">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>699</v>
       </c>
@@ -39597,11 +37825,8 @@
       <c r="M592" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N592" s="1">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>701</v>
       </c>
@@ -39641,11 +37866,8 @@
       <c r="M593" s="2" t="s">
         <v>3562</v>
       </c>
-      <c r="N593" s="1">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>702</v>
       </c>
@@ -39685,11 +37907,8 @@
       <c r="M594" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N594" s="1">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>703</v>
       </c>
@@ -39729,11 +37948,8 @@
       <c r="M595" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N595" s="1">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>704</v>
       </c>
@@ -39773,11 +37989,8 @@
       <c r="M596" s="2" t="s">
         <v>3569</v>
       </c>
-      <c r="N596" s="1">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>705</v>
       </c>
@@ -39817,11 +38030,8 @@
       <c r="M597" s="2" t="s">
         <v>3575</v>
       </c>
-      <c r="N597" s="1">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>706</v>
       </c>
@@ -39861,11 +38071,8 @@
       <c r="M598" s="2" t="s">
         <v>3578</v>
       </c>
-      <c r="N598" s="1">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>707</v>
       </c>
@@ -39905,11 +38112,8 @@
       <c r="M599" s="2" t="s">
         <v>3589</v>
       </c>
-      <c r="N599" s="1">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>709</v>
       </c>
@@ -39949,11 +38153,8 @@
       <c r="M600" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N600" s="1">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>710</v>
       </c>
@@ -39993,11 +38194,8 @@
       <c r="M601" s="2" t="s">
         <v>3594</v>
       </c>
-      <c r="N601" s="1">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>711</v>
       </c>
@@ -40034,11 +38232,8 @@
       <c r="M602" s="2" t="s">
         <v>3603</v>
       </c>
-      <c r="N602" s="1">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>713</v>
       </c>
@@ -40078,11 +38273,8 @@
       <c r="M603" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N603" s="1">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>715</v>
       </c>
@@ -40119,11 +38311,8 @@
       <c r="M604" s="2" t="s">
         <v>3611</v>
       </c>
-      <c r="N604" s="1">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>716</v>
       </c>
@@ -40154,11 +38343,8 @@
       <c r="M605" s="2" t="s">
         <v>3618</v>
       </c>
-      <c r="N605" s="1">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>717</v>
       </c>
@@ -40195,11 +38381,8 @@
       <c r="M606" s="2" t="s">
         <v>3621</v>
       </c>
-      <c r="N606" s="1">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>718</v>
       </c>
@@ -40239,11 +38422,8 @@
       <c r="M607" s="2" t="s">
         <v>3624</v>
       </c>
-      <c r="N607" s="1">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>719</v>
       </c>
@@ -40280,11 +38460,8 @@
       <c r="M608" s="2" t="s">
         <v>3627</v>
       </c>
-      <c r="N608" s="1">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>720</v>
       </c>
@@ -40321,11 +38498,8 @@
       <c r="M609" s="2" t="s">
         <v>3630</v>
       </c>
-      <c r="N609" s="1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>721</v>
       </c>
@@ -40356,11 +38530,8 @@
       <c r="M610" s="2" t="s">
         <v>3636</v>
       </c>
-      <c r="N610" s="1">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>722</v>
       </c>
@@ -40397,11 +38568,8 @@
       <c r="M611" s="2" t="s">
         <v>3639</v>
       </c>
-      <c r="N611" s="1">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>723</v>
       </c>
@@ -40441,11 +38609,8 @@
       <c r="M612" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N612" s="1">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>725</v>
       </c>
@@ -40485,11 +38650,8 @@
       <c r="M613" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N613" s="1">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>726</v>
       </c>
@@ -40529,11 +38691,8 @@
       <c r="M614" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N614" s="1">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>727</v>
       </c>
@@ -40573,11 +38732,8 @@
       <c r="M615" s="2" t="s">
         <v>3657</v>
       </c>
-      <c r="N615" s="1">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>728</v>
       </c>
@@ -40614,11 +38770,8 @@
       <c r="M616" s="2" t="s">
         <v>3661</v>
       </c>
-      <c r="N616" s="1">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>729</v>
       </c>
@@ -40649,11 +38802,8 @@
       <c r="M617" s="2" t="s">
         <v>3667</v>
       </c>
-      <c r="N617" s="1">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>730</v>
       </c>
@@ -40693,11 +38843,8 @@
       <c r="M618" s="2" t="s">
         <v>3676</v>
       </c>
-      <c r="N618" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>731</v>
       </c>
@@ -40737,11 +38884,8 @@
       <c r="M619" s="2" t="s">
         <v>3685</v>
       </c>
-      <c r="N619" s="1">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>735</v>
       </c>
@@ -40781,11 +38925,8 @@
       <c r="M620" s="2" t="s">
         <v>3690</v>
       </c>
-      <c r="N620" s="1">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>737</v>
       </c>
@@ -40825,11 +38966,8 @@
       <c r="M621" s="2" t="s">
         <v>3693</v>
       </c>
-      <c r="N621" s="1">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>738</v>
       </c>
@@ -40869,11 +39007,8 @@
       <c r="M622" s="2" t="s">
         <v>3130</v>
       </c>
-      <c r="N622" s="1">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>739</v>
       </c>
@@ -40910,11 +39045,8 @@
       <c r="M623" s="2" t="s">
         <v>3702</v>
       </c>
-      <c r="N623" s="1">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>740</v>
       </c>
@@ -40954,11 +39086,8 @@
       <c r="M624" s="2" t="s">
         <v>3705</v>
       </c>
-      <c r="N624" s="1">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>741</v>
       </c>
@@ -40998,11 +39127,8 @@
       <c r="M625" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N625" s="1">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>742</v>
       </c>
@@ -41042,11 +39168,8 @@
       <c r="M626" s="2" t="s">
         <v>3710</v>
       </c>
-      <c r="N626" s="1">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>743</v>
       </c>
@@ -41086,11 +39209,8 @@
       <c r="M627" s="2" t="s">
         <v>3711</v>
       </c>
-      <c r="N627" s="1">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>745</v>
       </c>
@@ -41130,11 +39250,8 @@
       <c r="M628" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N628" s="1">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>747</v>
       </c>
@@ -41174,11 +39291,8 @@
       <c r="M629" s="2" t="s">
         <v>3724</v>
       </c>
-      <c r="N629" s="1">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>748</v>
       </c>
@@ -41218,11 +39332,8 @@
       <c r="M630" s="2" t="s">
         <v>3733</v>
       </c>
-      <c r="N630" s="1">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>749</v>
       </c>
@@ -41262,11 +39373,8 @@
       <c r="M631" s="2" t="s">
         <v>3736</v>
       </c>
-      <c r="N631" s="1">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>751</v>
       </c>
@@ -41300,11 +39408,8 @@
       <c r="M632" s="2" t="s">
         <v>3743</v>
       </c>
-      <c r="N632" s="1">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>752</v>
       </c>
@@ -41344,11 +39449,8 @@
       <c r="M633" s="2" t="s">
         <v>3724</v>
       </c>
-      <c r="N633" s="1">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>753</v>
       </c>
@@ -41388,11 +39490,8 @@
       <c r="M634" s="2" t="s">
         <v>3746</v>
       </c>
-      <c r="N634" s="1">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>754</v>
       </c>
@@ -41432,11 +39531,8 @@
       <c r="M635" s="2" t="s">
         <v>3756</v>
       </c>
-      <c r="N635" s="1">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>755</v>
       </c>
@@ -41476,11 +39572,8 @@
       <c r="M636" s="2" t="s">
         <v>3759</v>
       </c>
-      <c r="N636" s="1">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>756</v>
       </c>
@@ -41520,11 +39613,8 @@
       <c r="M637" s="2" t="s">
         <v>3762</v>
       </c>
-      <c r="N637" s="1">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>757</v>
       </c>
@@ -41564,11 +39654,8 @@
       <c r="M638" s="2" t="s">
         <v>3763</v>
       </c>
-      <c r="N638" s="1">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>758</v>
       </c>
@@ -41608,11 +39695,8 @@
       <c r="M639" s="2" t="s">
         <v>3774</v>
       </c>
-      <c r="N639" s="1">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>761</v>
       </c>
@@ -41652,11 +39736,8 @@
       <c r="M640" s="2" t="s">
         <v>3786</v>
       </c>
-      <c r="N640" s="1">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>762</v>
       </c>
@@ -41696,11 +39777,8 @@
       <c r="M641" s="2" t="s">
         <v>3794</v>
       </c>
-      <c r="N641" s="1">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>763</v>
       </c>
@@ -41740,11 +39818,8 @@
       <c r="M642" s="2" t="s">
         <v>3797</v>
       </c>
-      <c r="N642" s="1">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>764</v>
       </c>
@@ -41784,11 +39859,8 @@
       <c r="M643" s="2" t="s">
         <v>3806</v>
       </c>
-      <c r="N643" s="1">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>765</v>
       </c>
@@ -41828,11 +39900,8 @@
       <c r="M644" s="2" t="s">
         <v>3809</v>
       </c>
-      <c r="N644" s="1">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>766</v>
       </c>
@@ -41872,11 +39941,8 @@
       <c r="M645" s="2" t="s">
         <v>3812</v>
       </c>
-      <c r="N645" s="1">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>767</v>
       </c>
@@ -41916,11 +39982,8 @@
       <c r="M646" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N646" s="1">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>768</v>
       </c>
@@ -41960,11 +40023,8 @@
       <c r="M647" s="2" t="s">
         <v>3828</v>
       </c>
-      <c r="N647" s="1">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>769</v>
       </c>
@@ -41992,11 +40052,8 @@
       <c r="M648" s="2" t="s">
         <v>3831</v>
       </c>
-      <c r="N648" s="1">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>770</v>
       </c>
@@ -42036,11 +40093,8 @@
       <c r="M649" s="2" t="s">
         <v>3834</v>
       </c>
-      <c r="N649" s="1">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>771</v>
       </c>
@@ -42080,11 +40134,8 @@
       <c r="M650" s="2" t="s">
         <v>3794</v>
       </c>
-      <c r="N650" s="1">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>772</v>
       </c>
@@ -42124,11 +40175,8 @@
       <c r="M651" s="2" t="s">
         <v>3841</v>
       </c>
-      <c r="N651" s="1">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>773</v>
       </c>
@@ -42156,11 +40204,8 @@
       <c r="M652" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N652" s="1">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>774</v>
       </c>
@@ -42200,11 +40245,8 @@
       <c r="M653" s="2" t="s">
         <v>3848</v>
       </c>
-      <c r="N653" s="1">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>775</v>
       </c>
@@ -42241,11 +40283,8 @@
       <c r="M654" s="2" t="s">
         <v>3857</v>
       </c>
-      <c r="N654" s="1">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>776</v>
       </c>
@@ -42285,11 +40324,8 @@
       <c r="M655" s="2" t="s">
         <v>3860</v>
       </c>
-      <c r="N655" s="1">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>779</v>
       </c>
@@ -42329,11 +40365,8 @@
       <c r="M656" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N656" s="1">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>780</v>
       </c>
@@ -42373,11 +40406,8 @@
       <c r="M657" s="2" t="s">
         <v>3866</v>
       </c>
-      <c r="N657" s="1">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>781</v>
       </c>
@@ -42417,11 +40447,8 @@
       <c r="M658" s="2" t="s">
         <v>3869</v>
       </c>
-      <c r="N658" s="1">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>782</v>
       </c>
@@ -42452,11 +40479,8 @@
       <c r="M659" s="2" t="s">
         <v>3876</v>
       </c>
-      <c r="N659" s="1">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>783</v>
       </c>
@@ -42484,11 +40508,8 @@
       <c r="M660" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N660" s="1">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>785</v>
       </c>
@@ -42525,11 +40546,8 @@
       <c r="M661" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N661" s="1">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>788</v>
       </c>
@@ -42557,11 +40575,8 @@
       <c r="M662" s="2" t="s">
         <v>3892</v>
       </c>
-      <c r="N662" s="1">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>789</v>
       </c>
@@ -42598,11 +40613,8 @@
       <c r="M663" s="2" t="s">
         <v>3900</v>
       </c>
-      <c r="N663" s="1">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>790</v>
       </c>
@@ -42642,11 +40654,8 @@
       <c r="M664" s="2" t="s">
         <v>3910</v>
       </c>
-      <c r="N664" s="1">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>791</v>
       </c>
@@ -42683,11 +40692,8 @@
       <c r="M665" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N665" s="1">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>793</v>
       </c>
@@ -42727,11 +40733,8 @@
       <c r="M666" s="2" t="s">
         <v>3922</v>
       </c>
-      <c r="N666" s="1">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>794</v>
       </c>
@@ -42771,11 +40774,8 @@
       <c r="M667" s="2" t="s">
         <v>3928</v>
       </c>
-      <c r="N667" s="1">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>795</v>
       </c>
@@ -42812,11 +40812,8 @@
       <c r="M668" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N668" s="1">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>796</v>
       </c>
@@ -42856,11 +40853,8 @@
       <c r="M669" s="2" t="s">
         <v>3938</v>
       </c>
-      <c r="N669" s="1">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>797</v>
       </c>
@@ -42900,11 +40894,8 @@
       <c r="M670" s="2" t="s">
         <v>3941</v>
       </c>
-      <c r="N670" s="1">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>798</v>
       </c>
@@ -42944,11 +40935,8 @@
       <c r="M671" s="2" t="s">
         <v>3944</v>
       </c>
-      <c r="N671" s="1">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>799</v>
       </c>
@@ -42985,11 +40973,8 @@
       <c r="M672" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N672" s="1">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>804</v>
       </c>
@@ -43029,11 +41014,8 @@
       <c r="M673" s="2" t="s">
         <v>3947</v>
       </c>
-      <c r="N673" s="1">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>806</v>
       </c>
@@ -43061,11 +41043,8 @@
       <c r="M674" s="2" t="s">
         <v>3892</v>
       </c>
-      <c r="N674" s="1">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>810</v>
       </c>
@@ -43105,11 +41084,8 @@
       <c r="M675" s="2" t="s">
         <v>3954</v>
       </c>
-      <c r="N675" s="1">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>813</v>
       </c>
@@ -43137,11 +41113,8 @@
       <c r="M676" s="2" t="s">
         <v>3960</v>
       </c>
-      <c r="N676" s="1">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>817</v>
       </c>
@@ -43181,11 +41154,8 @@
       <c r="M677" s="2" t="s">
         <v>3910</v>
       </c>
-      <c r="N677" s="1">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>818</v>
       </c>
@@ -43225,11 +41195,8 @@
       <c r="M678" s="2" t="s">
         <v>3963</v>
       </c>
-      <c r="N678" s="1">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>819</v>
       </c>
@@ -43257,11 +41224,8 @@
       <c r="M679" s="2" t="s">
         <v>3970</v>
       </c>
-      <c r="N679" s="1">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>823</v>
       </c>
@@ -43292,11 +41256,8 @@
       <c r="M680" s="2" t="s">
         <v>3977</v>
       </c>
-      <c r="N680" s="1">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>824</v>
       </c>
@@ -43336,11 +41297,8 @@
       <c r="M681" s="2" t="s">
         <v>3980</v>
       </c>
-      <c r="N681" s="1">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>828</v>
       </c>
@@ -43371,11 +41329,8 @@
       <c r="M682" s="2" t="s">
         <v>3987</v>
       </c>
-      <c r="N682" s="1">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>829</v>
       </c>
@@ -43411,9 +41366,6 @@
       </c>
       <c r="M683" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="N683" s="1">
-        <v>829</v>
       </c>
     </row>
   </sheetData>
